--- a/data/trans_orig/LAWTONBRODY-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.970669315481422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.518126523675014</v>
+        <v>6.518126523675013</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.869179862913005</v>
@@ -693,7 +693,7 @@
         <v>6.763342523904281</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6.183939277204444</v>
+        <v>6.183939277204445</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.320199293281005</v>
+        <v>6.327907119226873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.555200535266655</v>
+        <v>6.559228147306495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.515501969114895</v>
+        <v>6.551712830697968</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.18811290192802</v>
+        <v>6.159011191448851</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.44930850303315</v>
+        <v>6.441955985500333</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.866638078319373</v>
+        <v>5.88170059705692</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.182287243417428</v>
+        <v>6.202279114507544</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.642050133391627</v>
+        <v>5.627875175893355</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.488407361206773</v>
+        <v>6.512947326772498</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.352538528006137</v>
+        <v>6.333601251622238</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.483249896126567</v>
+        <v>6.481482916640101</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.966527400713242</v>
+        <v>5.966634201497503</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.140728840145709</v>
+        <v>7.159413126848799</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.303824100918493</v>
+        <v>7.306769968156667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.285898457621053</v>
+        <v>7.283275622571822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.802041571568665</v>
+        <v>6.814855804947783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.183500052890579</v>
+        <v>7.206932537255923</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.699368943802004</v>
+        <v>6.676720169938807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.942364297728329</v>
+        <v>6.936733021589288</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.145385238498814</v>
+        <v>6.13516073894078</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.092555011272411</v>
+        <v>7.080934763574364</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.912278428982112</v>
+        <v>6.894145857661967</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.017507186506215</v>
+        <v>7.02616267818001</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>6.35842389985515</v>
+        <v>6.375530401771618</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>6.820201107361741</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6.452600750031108</v>
+        <v>6.452600750031107</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.664571494050484</v>
+        <v>6.628499119779583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.027111628517478</v>
+        <v>6.024696855761164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.696240005209139</v>
+        <v>6.715692285553475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.637127093715272</v>
+        <v>6.622247100790077</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.251983489294766</v>
+        <v>6.307330284341625</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.322518649031207</v>
+        <v>5.365376202631657</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.315858179890905</v>
+        <v>6.250348223990454</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.801922890212537</v>
+        <v>5.815116143353435</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.581482302041743</v>
+        <v>6.555484221738872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.812394046973015</v>
+        <v>5.791447151212588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.561394480784877</v>
+        <v>6.565023196312188</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.240407641664299</v>
+        <v>6.2549202003861</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.285420685377306</v>
+        <v>7.276890502778834</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.929826606243834</v>
+        <v>6.928212217172153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.29218508807296</v>
+        <v>7.284394430524484</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.173018443378745</v>
+        <v>7.166515816075488</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.973408425019489</v>
+        <v>6.99311349071612</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.221553110346333</v>
+        <v>6.231903476728314</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>6.96515165756759</v>
+        <v>6.979205765425319</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>6.380034995923895</v>
+        <v>6.348143967882272</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.043807897949551</v>
+        <v>7.024186210208573</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.423831929866115</v>
+        <v>6.445361724864808</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.050143300432311</v>
+        <v>7.060317052808703</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.647842944100429</v>
+        <v>6.646176380630289</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.240775389056806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.407403423962506</v>
+        <v>7.407403423962507</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.898656272199799</v>
@@ -953,7 +953,7 @@
         <v>6.35108093927481</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>6.319791750556651</v>
+        <v>6.319791750556652</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.102591460969978</v>
@@ -965,7 +965,7 @@
         <v>6.755100474862014</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.848207512006772</v>
+        <v>6.848207512006774</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.01995599755501</v>
+        <v>6.987075843038449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.959945643044219</v>
+        <v>5.883343440318487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.871676982191834</v>
+        <v>6.847551487281432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.139115695155634</v>
+        <v>7.127284375927832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.518505979522598</v>
+        <v>6.499681291274439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.463118468272101</v>
+        <v>5.448847550014687</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.818704036635896</v>
+        <v>5.842759070615423</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.97751717173586</v>
+        <v>5.9716674465768</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.80564554359866</v>
+        <v>6.825131697006026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.808309702291906</v>
+        <v>5.811877259925326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.412978033667224</v>
+        <v>6.406491825757904</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.617234844264172</v>
+        <v>6.628317563062197</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.633293884284951</v>
+        <v>7.652106125938795</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.086085104981566</v>
+        <v>7.062726062225207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.511936324696332</v>
+        <v>7.501954462953687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.609142102116672</v>
+        <v>7.593260951037026</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.210441205254419</v>
+        <v>7.216190935038859</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.506291334543382</v>
+        <v>6.479017203081746</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.822003039345387</v>
+        <v>6.829423664713938</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.608019900516227</v>
+        <v>6.621189092821118</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.324185060715774</v>
+        <v>7.318080490531727</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.609664702874998</v>
+        <v>6.606735539278207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.016450202170346</v>
+        <v>7.066407287453712</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.042468336536097</v>
+        <v>7.049478699841447</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>6.683988516680716</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>6.45037514812992</v>
+        <v>6.450375148129922</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.923230121024936</v>
@@ -1101,7 +1101,7 @@
         <v>6.945497751957511</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.741188806606492</v>
+        <v>6.741188806606493</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.95898499341699</v>
+        <v>6.986288495737853</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.374426547447186</v>
+        <v>6.423080895135276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.004396045912227</v>
+        <v>6.984402466584815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.906622278792391</v>
+        <v>6.923139388259221</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.342006776549799</v>
+        <v>6.382925498864263</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.270154992904326</v>
+        <v>6.290731681520382</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.333251947941273</v>
+        <v>6.330254801927022</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.210411205538618</v>
+        <v>6.218404569068562</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.671777348983214</v>
+        <v>6.689708180141129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.419326958532428</v>
+        <v>6.411214473351601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.715528903826781</v>
+        <v>6.704058642598897</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.571514593601771</v>
+        <v>6.558650296556134</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.509590725666723</v>
+        <v>7.529542903932049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.165634224851477</v>
+        <v>7.18121470811152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.524735277426282</v>
+        <v>7.521693074456385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.342074918131906</v>
+        <v>7.343470367281026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.955842309138622</v>
+        <v>6.990828242989895</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.890261493932525</v>
+        <v>6.900237946833958</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.015956687130177</v>
+        <v>6.999262986001662</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.660660359479664</v>
+        <v>6.651658512317151</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.126508011706186</v>
+        <v>7.124651261366002</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.932009515646421</v>
+        <v>6.925521296720665</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.15171786338705</v>
+        <v>7.15757678482852</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.896556965213656</v>
+        <v>6.892734394403877</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>7.140241043362948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.00178788220316</v>
+        <v>7.001787882203161</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.77032590222096</v>
@@ -1225,7 +1225,7 @@
         <v>6.5995494712418</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>6.214887074623242</v>
+        <v>6.214887074623241</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>6.910563450043422</v>
@@ -1237,7 +1237,7 @@
         <v>6.833517160263962</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.563050952957235</v>
+        <v>6.563050952957236</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.920300501841984</v>
+        <v>6.921834965892019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.507527577340699</v>
+        <v>6.496929798082591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.9723589641269</v>
+        <v>6.987010557541403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.861457433317761</v>
+        <v>6.871284285743648</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.596490902418055</v>
+        <v>6.584116242425157</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.016779445333118</v>
+        <v>6.005919774520363</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.406761147305667</v>
+        <v>6.385641150376744</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.071840691696866</v>
+        <v>6.072880851685341</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.785330253994569</v>
+        <v>6.779519808285861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.279036875928104</v>
+        <v>6.295198557892255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.712155898032353</v>
+        <v>6.699099403102519</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.466029149270624</v>
+        <v>6.467155955475945</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.260481028031231</v>
+        <v>7.255228237955756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.935394011467467</v>
+        <v>6.936997267089422</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.287453239213942</v>
+        <v>7.272845838010008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.126831894986861</v>
+        <v>7.125174978061825</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.941260349355099</v>
+        <v>6.935273451414919</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.440915555543269</v>
+        <v>6.425912089245948</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.785971420896985</v>
+        <v>6.770350964716208</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.339575756947885</v>
+        <v>6.350637800206297</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.018597804113337</v>
+        <v>7.025353790327965</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.582371102490175</v>
+        <v>6.601056889422228</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6.954963101998346</v>
+        <v>6.948197003050374</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.658505575290582</v>
+        <v>6.645774820050454</v>
       </c>
     </row>
     <row r="19">
